--- a/Assets/Church/Scene2Convo.xlsx
+++ b/Assets/Church/Scene2Convo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Church\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E5DEA-E95A-460C-97B3-676FD8515231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D785B9-6CB5-486D-8508-F9AF3FCF375F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene2" sheetId="1" r:id="rId1"/>
@@ -162,340 +162,6 @@
   </si>
   <si>
     <r>
-      <t>O yes, yes! I see thee becoming accustomed to the petty earthly life. Running &lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>swifter&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, how lovely!</t>
-    </r>
-  </si>
-  <si>
-    <t>哦，对啊，对啊！我看你渐渐习惯了尘世琐碎的生活。跑得 &lt;color=#808080ff&gt;更快&lt;/color&gt;了，真可爱！</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dost thou seek to  &lt;color=#808080ff&gt;break free&lt;/color&gt;? Thou must possess the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;key&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <t>你是不是想&lt;color=#808080ff&gt;挣脱&lt;/color&gt;？你必须拥有&lt;color=#808080ff&gt;钥匙&lt;/color&gt;！</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">O Lord! The ghostly </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;brides&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>! Another ritual for martyrdom! Cheers!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">These dames preserve their forms for their &lt;color=#808080ff&gt;lovers&lt;/color&gt; alone, son! Dare </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> let them </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>touch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> thee!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">They appear in countless dreams, borne by thine </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;mortal&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> comrades.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">But dear God, doth it appear to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Him</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? He merely </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;watches&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, yet unsees the misfortune.</t>
-    </r>
-  </si>
-  <si>
-    <t>Behold that &lt;color=#808080ff&gt;golden form&lt;/color&gt;! Seize thy blessing, child! Let not the&lt;color=#808080ff&gt;key&lt;/color&gt;escape!</t>
-  </si>
-  <si>
-    <t>紧随&lt;color=#808080ff&gt;金色的身影&lt;/color&gt;！勿使天恩散落，孩子！看紧你的&lt;color=#808080ff&gt;钥匙&lt;/color&gt;！</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;Mortality&lt;/color&gt;! Till death dost part thee!</t>
-  </si>
-  <si>
-    <t>What can a mere &lt;color=#808080ff&gt;mortal hold on to&lt;/color&gt; at the end of their days?</t>
-  </si>
-  <si>
-    <t>一个&lt;color=#808080ff&gt;凡人&lt;/color&gt;在生命尽头还有什么&lt;color=#808080ff&gt;执念&lt;/color&gt;呢？</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;Happiness&lt;/color&gt;? A fleeting mood!</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;幸福&lt;/color&gt;？转瞬即逝的心情！</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;Fortune&lt;/color&gt;? 'Tis had in some moments and lacking in others!</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;财富&lt;/color&gt;？有时有，有时无！</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;Fame&lt;/color&gt;? A worthy pursuit! Yet even &lt;color=#808080ff&gt;heroes&lt;/color&gt; need poets to sing of their deeds.</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;名声&lt;/color&gt;？值得追求！然而，即使是&lt;color=#808080ff&gt;英雄&lt;/color&gt;，也需要诗人来歌颂他们的事迹。</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;Returning&lt;/color&gt; to where it all begins… what dost thou &lt;color=#808080ff&gt;hold on to&lt;/color&gt;, child?”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>哦上帝！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这些</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>幽灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新娘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>！又一个殉难仪式！</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这些女人只在会在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爱人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>面前毕露原形，吾儿！不要让她们触碰你！</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="等线"/>
@@ -516,308 +182,82 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>她们出现在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无数的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>梦境</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中，你</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凡人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同伴们</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的梦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>但上帝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这在他面前出现了吗？他只是在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旁观</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，却看不到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不幸。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>死亡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>！天人永隔！</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一切的起点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>……</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孩子，你有什么</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执念</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>呢？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
+    <t>一个&lt;color=#ffc800&gt;凡人&lt;/color&gt;在生命尽头还有什么&lt;color=#ffc800&gt;执念&lt;/color&gt;呢？</t>
+  </si>
+  <si>
+    <t>O yes, yes! I see thee becoming accustomed to the petty earthly life. Running &lt;color=#ffc800&gt;swifter&lt;/color&gt;, how lovely!</t>
+  </si>
+  <si>
+    <t>哦，对啊，对啊！我看你渐渐习惯了尘世琐碎的生活。跑得 &lt;color=#ffc800&gt;更快&lt;/color&gt;了，真可爱！</t>
+  </si>
+  <si>
+    <t>Dost thou seek to  &lt;color=#ffc800&gt;break free&lt;/color&gt;? Thou must possess the &lt;color=#ffc800&gt;key&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>你是不是想&lt;color=#ffc800&gt;挣脱&lt;/color&gt;？你必须拥有&lt;color=#ffc800&gt;钥匙&lt;/color&gt;！</t>
+  </si>
+  <si>
+    <t>O Lord! The ghostly &lt;color=#ffc800&gt;brides&lt;/color&gt;! Another ritual for martyrdom! Cheers!</t>
+  </si>
+  <si>
+    <t>哦上帝！这些幽灵&lt;color=#ffc800&gt;新娘&lt;/color&gt;！又一个殉难仪式！</t>
+  </si>
+  <si>
+    <t>These dames preserve their forms for their &lt;color=#ffc800&gt;lovers&lt;/color&gt; alone, son! Dare not let them touch thee!</t>
+  </si>
+  <si>
+    <t>这些女人只在会在&lt;color=#ffc800&gt;爱人&lt;/color&gt;面前毕露原形，吾儿！不要让她们触碰你！</t>
+  </si>
+  <si>
+    <t>Behold that &lt;color=#ffc800&gt;golden form&lt;/color&gt;! Seize thy blessing, child! Let not the&lt;color=#ffc800&gt;key&lt;/color&gt;escape!</t>
+  </si>
+  <si>
+    <t>紧随&lt;color=#ffc800&gt;金色的身影&lt;/color&gt;！勿使天恩散落，孩子！看紧你的&lt;color=#ffc800&gt;钥匙&lt;/color&gt;！</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Mortality&lt;/color&gt;! Till death dost part thee!</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;死亡&lt;/color&gt;！天人永隔！</t>
+  </si>
+  <si>
+    <t>What can a mere &lt;color=#ffc800&gt;mortal hold on to&lt;/color&gt; at the end of their days?</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;幸福&lt;/color&gt;？转瞬即逝的心情！</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Happiness&lt;/color&gt;? A fleeting mood!</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;财富&lt;/color&gt;？有时有，有时无！</t>
+  </si>
+  <si>
+    <t>They appear in countless dreams, borne by thine &lt;color=#ffc800&gt;mortal&lt;/color&gt; comrades.</t>
+  </si>
+  <si>
+    <t>她们出现在无数的梦境之中，你&lt;color=#ffc800&gt;凡人&lt;/color&gt;同伴们的梦。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Fortune&lt;/color&gt;? 'Tis had in some moments and lacking in others!</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;名声&lt;/color&gt;？值得追求！然而，即使是&lt;color=#ffc800&gt;英雄&lt;/color&gt;，也需要诗人来歌颂他们的事迹。</t>
+  </si>
+  <si>
+    <t>But dear God, doth it appear to Him? He merely &lt;color=#ffc800&gt;watches&lt;/color&gt;, yet unsees the misfortune.</t>
+  </si>
+  <si>
+    <t>但上帝啊，这在他面前出现了吗？他只是在&lt;color=#ffc800&gt;旁观&lt;/color&gt;，却看不到这个不幸。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Fame&lt;/color&gt;? A worthy pursuit! Yet even &lt;color=#ffc800&gt;heroes&lt;/color&gt; need poets to sing of their deeds.</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;回到&lt;/color&gt;一切的起点……孩子，你有什么&lt;color=#ffc800&gt;执念&lt;/color&gt;呢？“</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Returning&lt;/color&gt; to where it all begins… what dost thou &lt;color=#ffc800&gt;hold on to&lt;/color&gt;, child”</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -880,11 +320,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -922,7 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1259,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1353,36 +788,36 @@
       </c>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
@@ -1391,22 +826,22 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.4">
@@ -1414,66 +849,66 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" t="s">
-        <v>41</v>
-      </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1481,16 +916,18 @@
         <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.25">
